--- a/4 Conditional Formatting/Conditional Formatting - 3. Bars.xlsx
+++ b/4 Conditional Formatting/Conditional Formatting - 3. Bars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\5.5 Conditional Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/4 Conditional Formatting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE90E4A-B64B-4059-A860-31AE975A2FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8FE90E4A-B64B-4059-A860-31AE975A2FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE35ABC-8477-429F-8F65-ACB44BE04CF6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="4" xr2:uid="{94C39369-CB0B-42C0-9EC9-550FA6C4F019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{94C39369-CB0B-42C0-9EC9-550FA6C4F019}"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight Cells" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Highlight Cells 3'!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,183 +299,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -519,68 +350,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -595,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -635,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -741,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -883,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1354,20 +1123,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1375,7 +1144,7 @@
     <mergeCell ref="A16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:M11">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>100</formula>
       <formula>200</formula>
     </cfRule>
@@ -1407,7 +1176,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44972</v>
       </c>
       <c r="B2" t="s">
@@ -1415,7 +1184,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45005</v>
       </c>
       <c r="B3" t="s">
@@ -1423,7 +1192,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>45021</v>
       </c>
       <c r="B4" t="s">
@@ -1431,7 +1200,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45058</v>
       </c>
       <c r="B5" t="s">
@@ -1439,7 +1208,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45085</v>
       </c>
       <c r="B6" t="s">
@@ -1447,7 +1216,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>45125</v>
       </c>
       <c r="B7" t="s">
@@ -1455,7 +1224,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>45162</v>
       </c>
       <c r="B8" t="s">
@@ -1463,7 +1232,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>45179</v>
       </c>
       <c r="B9" t="s">
@@ -1471,7 +1240,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>45215</v>
       </c>
       <c r="B10" t="s">
@@ -1479,7 +1248,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>45260</v>
       </c>
       <c r="B11" t="s">
@@ -1488,12 +1257,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="timePeriod" dxfId="20" priority="2" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="lastMonth">
       <formula>AND(MONTH(A1)=MONTH(EDATE(TODAY(),0-1)),YEAR(A1)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="1TB">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1TB">
       <formula>NOT(ISERROR(SEARCH("1TB",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1676,7 +1445,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{A5B30854-AEE9-4819-9C2D-1F4E79016334}"/>
@@ -2152,28 +1921,28 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2190,7 +1959,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2650,17 +2419,29 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A14:D14"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>